--- a/项目/Projects.xlsx
+++ b/项目/Projects.xlsx
@@ -757,7 +757,7 @@
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -793,7 +793,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>43409</v>
+        <v>43410</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -801,7 +801,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="3">
-        <v>43409</v>
+        <v>43410</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">

--- a/项目/Projects.xlsx
+++ b/项目/Projects.xlsx
@@ -757,7 +757,7 @@
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -789,10 +789,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>43410</v>
       </c>
     </row>

--- a/项目/Projects.xlsx
+++ b/项目/Projects.xlsx
@@ -12,6 +12,7 @@
     <sheet name="时间捕手" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -309,7 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +357,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -377,13 +390,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -754,25 +769,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -780,7 +795,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -788,107 +803,119 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>43410</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>43410</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" s="6">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>43411</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="3">
+        <v>43416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>43413</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7" s="6">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>43413</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8" s="6">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>43416</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>43416</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>43418</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
         <v>43419</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="6">
         <v>43419</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>43419</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>43419</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>43420</v>
       </c>
     </row>
@@ -896,7 +923,7 @@
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>43420</v>
       </c>
     </row>
@@ -904,7 +931,7 @@
       <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>43420</v>
       </c>
     </row>

--- a/项目/Projects.xlsx
+++ b/项目/Projects.xlsx
@@ -12,12 +12,11 @@
     <sheet name="时间捕手" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>时间捕手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +302,10 @@
   </si>
   <si>
     <t>性能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡推进图表现设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +709,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -769,10 +772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -812,7 +815,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6">
@@ -823,7 +826,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="6">
@@ -834,7 +837,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="6">
@@ -845,51 +848,52 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="6">
         <v>43413</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>43418</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="6">
         <v>43416</v>
       </c>
+      <c r="D9" s="3">
+        <v>43419</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="6">
-        <v>43416</v>
-      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C11" s="6">
-        <v>43418</v>
+        <v>43416</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6">
-        <v>43419</v>
+        <v>43418</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6">
         <v>43419</v>
@@ -897,7 +901,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6">
         <v>43419</v>
@@ -905,7 +909,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="6">
         <v>43419</v>
@@ -913,15 +917,15 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="6">
-        <v>43420</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6">
         <v>43420</v>
@@ -929,7 +933,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C18" s="6">
         <v>43420</v>
@@ -937,103 +941,103 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="3">
-        <v>43420</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="3">
         <v>43434</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="3">
-        <v>43420</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3">
-        <v>43424</v>
+        <v>43420</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C33" s="3">
-        <v>43425</v>
+        <v>43424</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3">
-        <v>43430</v>
+        <v>43425</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="3">
-        <v>43432</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C36" s="3">
-        <v>43434</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C37" s="3">
         <v>43434</v>
@@ -1041,55 +1045,55 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C38" s="3">
-        <v>43425</v>
+        <v>43434</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C39" s="3">
-        <v>43430</v>
+        <v>43425</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="3">
-        <v>43432</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="3">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C42" s="3">
         <v>43433</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C44" s="3">
         <v>43448</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>71</v>
@@ -1097,187 +1101,195 @@
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="3">
-        <v>43425</v>
+        <v>70</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C47" s="3">
-        <v>43427</v>
+        <v>43425</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C48" s="3">
-        <v>43431</v>
+        <v>43427</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C49" s="3">
-        <v>43433</v>
+        <v>43431</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="3">
-        <v>43434</v>
+        <v>43433</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C51" s="3">
-        <v>43438</v>
+        <v>43434</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C52" s="3">
-        <v>43440</v>
+        <v>43438</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="3">
-        <v>43444</v>
+        <v>43440</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="3">
-        <v>43446</v>
+        <v>43444</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55" s="3">
-        <v>43448</v>
+        <v>43446</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C56" s="3">
-        <v>43449</v>
+        <v>43448</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B57" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C57" s="3">
+        <v>43449</v>
+      </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
-        <v>68</v>
-      </c>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B68" s="1" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B69" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C69" s="3">
         <v>43448</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B69" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B70" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B71" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B73" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B77" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1290,12 +1302,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/项目/Projects.xlsx
+++ b/项目/Projects.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>时间捕手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,10 @@
   </si>
   <si>
     <t>关卡推进图表现设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡配置需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -402,6 +406,7 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -772,10 +777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -822,230 +827,268 @@
         <v>43410</v>
       </c>
       <c r="D5" s="6">
-        <v>43413</v>
+        <v>43416</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
-        <v>17</v>
+      <c r="B6" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C6" s="6">
-        <v>43411</v>
-      </c>
-      <c r="D6" s="3">
+        <v>43410</v>
+      </c>
+      <c r="D6" s="6">
         <v>43416</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6">
-        <v>43413</v>
-      </c>
-      <c r="D7" s="6">
-        <v>43418</v>
+        <v>43411</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43417</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C8" s="6">
-        <v>43413</v>
+        <v>43411</v>
       </c>
       <c r="D8" s="3">
-        <v>43418</v>
+        <v>43417</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43413</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6">
+        <v>43413</v>
+      </c>
+      <c r="D10" s="3">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="6">
-        <v>43416</v>
-      </c>
-      <c r="D9" s="3">
-        <v>43419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>62</v>
       </c>
       <c r="C11" s="6">
         <v>43416</v>
       </c>
+      <c r="D11" s="3">
+        <v>43420</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C12" s="6">
-        <v>43418</v>
+        <v>43416</v>
+      </c>
+      <c r="D12" s="3">
+        <v>43420</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C13" s="6">
-        <v>43419</v>
+        <v>43418</v>
+      </c>
+      <c r="D13" s="3">
+        <v>43424</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="6">
         <v>43419</v>
       </c>
+      <c r="D14" s="3">
+        <v>43425</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="6">
         <v>43419</v>
       </c>
+      <c r="D15" s="3">
+        <v>43425</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="6">
         <v>43419</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="3">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6">
+        <v>43419</v>
+      </c>
+      <c r="D17" s="3">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="6">
-        <v>43420</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>35</v>
       </c>
       <c r="C18" s="6">
         <v>43420</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D18" s="3">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6">
         <v>43420</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D19" s="3">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="6">
+        <v>43420</v>
+      </c>
+      <c r="D20" s="3">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>43420</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+      <c r="D24" s="3">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C32" s="3">
         <v>43434</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="3">
-        <v>43420</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3">
-        <v>43424</v>
+        <v>43420</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C34" s="3">
-        <v>43425</v>
+        <v>43424</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C35" s="3">
-        <v>43430</v>
+        <v>43425</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="3">
-        <v>43432</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C37" s="3">
-        <v>43434</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C38" s="3">
         <v>43434</v>
@@ -1053,55 +1096,55 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C39" s="3">
-        <v>43425</v>
+        <v>43434</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C40" s="3">
-        <v>43430</v>
+        <v>43425</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="3">
-        <v>43432</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="3">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C43" s="3">
         <v>43433</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C45" s="3">
         <v>43448</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>71</v>
@@ -1109,187 +1152,195 @@
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="3">
-        <v>43425</v>
+        <v>70</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C48" s="3">
-        <v>43427</v>
+        <v>43425</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3">
-        <v>43431</v>
+        <v>43427</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C50" s="3">
-        <v>43433</v>
+        <v>43431</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="3">
-        <v>43434</v>
+        <v>43433</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C52" s="3">
-        <v>43438</v>
+        <v>43434</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C53" s="3">
-        <v>43440</v>
+        <v>43438</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="3">
-        <v>43444</v>
+        <v>43440</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="3">
-        <v>43446</v>
+        <v>43444</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C56" s="3">
-        <v>43448</v>
+        <v>43446</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C57" s="3">
-        <v>43449</v>
+        <v>43448</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="3">
+        <v>43449</v>
+      </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B60" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
-        <v>68</v>
-      </c>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B69" s="1" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B70" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C70" s="3">
         <v>43448</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B70" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B72" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B78" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
         <v>45</v>
       </c>
     </row>

--- a/项目/Projects.xlsx
+++ b/项目/Projects.xlsx
@@ -317,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,9 +372,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -403,10 +410,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -717,12 +724,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -730,7 +737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -738,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -746,7 +753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -754,7 +761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -762,7 +769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="B6">
         <f>SUM(B1:B5)</f>
         <v>10</v>
@@ -780,22 +787,22 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -803,211 +810,211 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>43409</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>43410</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>43410</v>
       </c>
-      <c r="D5" s="6">
-        <v>43416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="5">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>43410</v>
       </c>
-      <c r="D6" s="6">
-        <v>43416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="5">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>43411</v>
       </c>
       <c r="D7" s="3">
-        <v>43417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>43411</v>
       </c>
       <c r="D8" s="3">
-        <v>43417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>43413</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>43419</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>43413</v>
       </c>
       <c r="D10" s="3">
         <v>43419</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>43416</v>
       </c>
       <c r="D11" s="3">
         <v>43420</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>43416</v>
       </c>
       <c r="D12" s="3">
         <v>43420</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>43418</v>
       </c>
       <c r="D13" s="3">
         <v>43424</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>43419</v>
       </c>
       <c r="D14" s="3">
         <v>43425</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>43419</v>
       </c>
       <c r="D15" s="3">
         <v>43425</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>43419</v>
       </c>
       <c r="D16" s="3">
         <v>43425</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>43419</v>
       </c>
       <c r="D17" s="3">
         <v>43425</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>43420</v>
       </c>
       <c r="D18" s="3">
         <v>43426</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>43420</v>
       </c>
       <c r="D19" s="3">
         <v>43426</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>43420</v>
       </c>
       <c r="D20" s="3">
         <v>43426</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4">
       <c r="B24" t="s">
         <v>37</v>
       </c>
@@ -1018,27 +1025,27 @@
         <v>43426</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4">
       <c r="B25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4">
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1053,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:3">
       <c r="B33" t="s">
         <v>18</v>
       </c>
@@ -1054,7 +1061,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:3">
       <c r="B34" t="s">
         <v>26</v>
       </c>
@@ -1062,7 +1069,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:3">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -1070,7 +1077,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:3">
       <c r="B36" t="s">
         <v>22</v>
       </c>
@@ -1078,7 +1085,7 @@
         <v>43430</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:3">
       <c r="B37" t="s">
         <v>23</v>
       </c>
@@ -1086,7 +1093,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:3">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -1094,7 +1101,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:3">
       <c r="B39" t="s">
         <v>27</v>
       </c>
@@ -1102,7 +1109,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:3">
       <c r="B40" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1117,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:3">
       <c r="B41" t="s">
         <v>34</v>
       </c>
@@ -1118,7 +1125,7 @@
         <v>43430</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:3">
       <c r="B42" t="s">
         <v>36</v>
       </c>
@@ -1126,7 +1133,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:3">
       <c r="B43" t="s">
         <v>38</v>
       </c>
@@ -1134,7 +1141,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:3">
       <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,7 +1149,7 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:3">
       <c r="B46" s="2" t="s">
         <v>69</v>
       </c>
@@ -1150,7 +1157,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:3">
       <c r="B47" s="2" t="s">
         <v>70</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:3">
       <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
@@ -1166,7 +1173,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
         <v>52</v>
       </c>
@@ -1174,7 +1181,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
@@ -1182,7 +1189,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
         <v>47</v>
       </c>
@@ -1190,7 +1197,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:3">
       <c r="B52" s="2" t="s">
         <v>48</v>
       </c>
@@ -1198,7 +1205,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
         <v>63</v>
       </c>
@@ -1206,7 +1213,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
         <v>49</v>
       </c>
@@ -1214,7 +1221,7 @@
         <v>43440</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:3">
       <c r="B55" s="2" t="s">
         <v>50</v>
       </c>
@@ -1222,7 +1229,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
         <v>51</v>
       </c>
@@ -1230,7 +1237,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:3">
       <c r="B57" s="2" t="s">
         <v>53</v>
       </c>
@@ -1238,7 +1245,7 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:3">
       <c r="B58" s="2" t="s">
         <v>56</v>
       </c>
@@ -1246,52 +1253,52 @@
         <v>43449</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:3">
       <c r="B59" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:3">
       <c r="B60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:3">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:3">
       <c r="B62" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:3">
       <c r="B63" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:3">
       <c r="B64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="B65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3">
       <c r="B67" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3">
       <c r="B68" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3">
       <c r="B70" s="1" t="s">
         <v>55</v>
       </c>
@@ -1299,47 +1306,47 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3">
       <c r="B71" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3">
       <c r="B72" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3">
       <c r="B75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3">
       <c r="B76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3">
       <c r="B79" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3">
       <c r="B80" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:2">
       <c r="B81" t="s">
         <v>45</v>
       </c>
@@ -1359,18 +1366,18 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>

--- a/项目/Projects.xlsx
+++ b/项目/Projects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
@@ -22,294 +22,294 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>空间捕手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘图方块结合操作remix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鬼去哪了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发计划</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
+    <t>美术</t>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>测试计划</t>
+  </si>
+  <si>
+    <t>对外灰度</t>
+  </si>
+  <si>
+    <t>发行计划</t>
+  </si>
+  <si>
+    <t>版号流程</t>
+  </si>
+  <si>
+    <t>内部2周</t>
+  </si>
+  <si>
+    <t>小鬼详细设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡节奏设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡主体进程设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体关卡设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与狼游美术一起确定美术方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业化设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鬼设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鬼制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景美术需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鬼美术需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鬼动画制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鬼动画美术需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI美术需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏ICON需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏ICON制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告UI制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边功能设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边功能开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡调试打磨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ玩一玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局核心玩法基础开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡进程开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡配置开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业化开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鬼行为特性开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声效需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声效开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据日志开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据统计开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据统计需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏流程设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏流程开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鬼动画特效开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本库环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架接入开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡推进图表现设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡配置需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TwinSpin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空间捕手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绘图方块结合操作remix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鬼去哪了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发计划</t>
-  </si>
-  <si>
-    <t>设计</t>
-  </si>
-  <si>
-    <t>美术</t>
-  </si>
-  <si>
-    <t>开发</t>
-  </si>
-  <si>
-    <t>测试计划</t>
-  </si>
-  <si>
-    <t>对外灰度</t>
-  </si>
-  <si>
-    <t>发行计划</t>
-  </si>
-  <si>
-    <t>版号流程</t>
-  </si>
-  <si>
-    <t>内部2周</t>
-  </si>
-  <si>
-    <t>小鬼详细设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡节奏设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡主体进程设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体关卡设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与狼游美术一起确定美术方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业化设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鬼设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鬼制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景美术需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鬼美术需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鬼动画制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鬼动画美术需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI美术需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏ICON需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏ICON制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告UI制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周边功能设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周边功能开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡调试打磨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ玩一玩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局核心玩法基础开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡进程开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡配置开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业化开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鬼行为特性开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声效需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声效开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGM制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据日志开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据统计开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据统计需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏流程设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏流程开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鬼动画特效开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适配设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适配开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排行榜设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排行榜开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本库环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上架接入开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性能优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡推进图表现设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡配置需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -731,23 +731,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -771,8 +771,8 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6">
-        <f>SUM(B1:B5)</f>
-        <v>10</v>
+        <f>SUM(B2:B5)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -799,12 +799,12 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3">
         <v>43420</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7">
         <v>43409</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8">
         <v>43410</v>
@@ -828,226 +828,226 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5">
         <v>43410</v>
       </c>
       <c r="D5" s="5">
-        <v>43417</v>
+        <v>43420</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5">
         <v>43410</v>
       </c>
       <c r="D6" s="5">
-        <v>43417</v>
+        <v>43420</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5">
         <v>43411</v>
       </c>
       <c r="D7" s="3">
-        <v>43418</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="5">
         <v>43411</v>
       </c>
       <c r="D8" s="3">
-        <v>43418</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5">
         <v>43413</v>
       </c>
       <c r="D9" s="5">
-        <v>43419</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5">
         <v>43413</v>
       </c>
-      <c r="D10" s="3">
-        <v>43419</v>
+      <c r="D10" s="5">
+        <v>43432</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5">
         <v>43416</v>
       </c>
-      <c r="D11" s="3">
-        <v>43420</v>
+      <c r="D11" s="5">
+        <v>43433</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5">
         <v>43416</v>
       </c>
-      <c r="D12" s="3">
-        <v>43420</v>
+      <c r="D12" s="5">
+        <v>43433</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5">
         <v>43418</v>
       </c>
       <c r="D13" s="3">
-        <v>43424</v>
+        <v>43437</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5">
         <v>43419</v>
       </c>
       <c r="D14" s="3">
-        <v>43425</v>
+        <v>43438</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5">
         <v>43419</v>
       </c>
       <c r="D15" s="3">
-        <v>43425</v>
+        <v>43438</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5">
         <v>43419</v>
       </c>
       <c r="D16" s="3">
-        <v>43425</v>
+        <v>43438</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5">
         <v>43419</v>
       </c>
       <c r="D17" s="3">
-        <v>43425</v>
+        <v>43438</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="5">
         <v>43420</v>
       </c>
       <c r="D18" s="3">
-        <v>43426</v>
+        <v>43439</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5">
         <v>43420</v>
       </c>
       <c r="D19" s="3">
-        <v>43426</v>
+        <v>43439</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="5">
         <v>43420</v>
       </c>
       <c r="D20" s="3">
-        <v>43426</v>
+        <v>43439</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3">
         <v>43420</v>
       </c>
       <c r="D24" s="3">
-        <v>43426</v>
+        <v>43439</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3">
         <v>43434</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="3">
         <v>43420</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="3">
         <v>43424</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="3">
         <v>43425</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="3">
         <v>43430</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="3">
         <v>43432</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="3">
         <v>43434</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="3">
         <v>43434</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3">
         <v>43425</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="3">
         <v>43430</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="3">
         <v>43432</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="3">
         <v>43433</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" s="3">
         <v>43448</v>
@@ -1151,23 +1151,23 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="3">
         <v>43425</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="3">
         <v>43427</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="3">
         <v>43431</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="3">
         <v>43433</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="3">
         <v>43434</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="3">
         <v>43438</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="3">
         <v>43440</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="3">
         <v>43444</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" s="3">
         <v>43446</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="3">
         <v>43448</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="3">
         <v>43449</v>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="3"/>
     </row>
@@ -1270,37 +1270,37 @@
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="B67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="B70" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="3">
         <v>43448</v>
@@ -1308,47 +1308,47 @@
     </row>
     <row r="71" spans="1:3">
       <c r="B71" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="B75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="B76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="B79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1374,12 +1374,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/项目/Projects.xlsx
+++ b/项目/Projects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -827,8 +827,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="1" t="s">
-        <v>14</v>
+      <c r="B5" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C5" s="5">
         <v>43410</v>
@@ -838,14 +838,14 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="6" t="s">
-        <v>73</v>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="5">
         <v>43410</v>
       </c>
       <c r="D6" s="5">
-        <v>43420</v>
+        <v>43423</v>
       </c>
     </row>
     <row r="7" spans="1:4">

--- a/项目/Projects.xlsx
+++ b/项目/Projects.xlsx
@@ -721,7 +721,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -787,7 +787,7 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -838,14 +838,14 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="5">
         <v>43410</v>
       </c>
       <c r="D6" s="5">
-        <v>43423</v>
+        <v>43424</v>
       </c>
     </row>
     <row r="7" spans="1:4">

--- a/项目/Projects.xlsx
+++ b/项目/Projects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
-  <si>
-    <t>时间捕手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>空间捕手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +306,14 @@
   </si>
   <si>
     <t>TwinSpin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间捕手A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间捕手B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -731,7 +735,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -739,15 +743,12 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -755,7 +756,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -763,15 +764,23 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B5">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6">
-        <f>SUM(B2:B5)</f>
+    <row r="7" spans="1:2">
+      <c r="B7">
+        <f>SUM(B3:B6)</f>
         <v>9</v>
       </c>
     </row>
@@ -786,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -799,12 +808,12 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>43420</v>
@@ -812,7 +821,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7">
         <v>43409</v>
@@ -820,7 +829,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="8">
         <v>43410</v>
@@ -828,7 +837,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5">
         <v>43410</v>
@@ -839,7 +848,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5">
         <v>43410</v>
@@ -850,7 +859,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5">
         <v>43411</v>
@@ -861,7 +870,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="5">
         <v>43411</v>
@@ -872,7 +881,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5">
         <v>43413</v>
@@ -883,7 +892,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5">
         <v>43413</v>
@@ -894,7 +903,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5">
         <v>43416</v>
@@ -905,7 +914,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="5">
         <v>43416</v>
@@ -916,7 +925,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5">
         <v>43418</v>
@@ -927,7 +936,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5">
         <v>43419</v>
@@ -938,7 +947,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5">
         <v>43419</v>
@@ -949,7 +958,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5">
         <v>43419</v>
@@ -960,7 +969,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5">
         <v>43419</v>
@@ -971,7 +980,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5">
         <v>43420</v>
@@ -982,7 +991,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5">
         <v>43420</v>
@@ -993,7 +1002,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="5">
         <v>43420</v>
@@ -1004,19 +1013,19 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3">
         <v>43420</v>
@@ -1027,27 +1036,27 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3">
         <v>43434</v>
@@ -1055,7 +1064,7 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="3">
         <v>43420</v>
@@ -1063,7 +1072,7 @@
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3">
         <v>43424</v>
@@ -1071,7 +1080,7 @@
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="3">
         <v>43425</v>
@@ -1079,7 +1088,7 @@
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="3">
         <v>43430</v>
@@ -1087,7 +1096,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" s="3">
         <v>43432</v>
@@ -1095,7 +1104,7 @@
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="3">
         <v>43434</v>
@@ -1103,7 +1112,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="3">
         <v>43434</v>
@@ -1111,7 +1120,7 @@
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="3">
         <v>43425</v>
@@ -1119,7 +1128,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3">
         <v>43430</v>
@@ -1127,7 +1136,7 @@
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="3">
         <v>43432</v>
@@ -1135,7 +1144,7 @@
     </row>
     <row r="43" spans="2:3">
       <c r="B43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="3">
         <v>43433</v>
@@ -1143,7 +1152,7 @@
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="3">
         <v>43448</v>
@@ -1151,23 +1160,23 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="3">
         <v>43425</v>
@@ -1175,7 +1184,7 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="3">
         <v>43427</v>
@@ -1183,7 +1192,7 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="3">
         <v>43431</v>
@@ -1191,7 +1200,7 @@
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="3">
         <v>43433</v>
@@ -1199,7 +1208,7 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="3">
         <v>43434</v>
@@ -1207,7 +1216,7 @@
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="3">
         <v>43438</v>
@@ -1215,7 +1224,7 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="3">
         <v>43440</v>
@@ -1223,7 +1232,7 @@
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="3">
         <v>43444</v>
@@ -1231,7 +1240,7 @@
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="3">
         <v>43446</v>
@@ -1239,7 +1248,7 @@
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="3">
         <v>43448</v>
@@ -1247,7 +1256,7 @@
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="3">
         <v>43449</v>
@@ -1255,13 +1264,13 @@
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60" s="3"/>
     </row>
@@ -1270,37 +1279,37 @@
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="B67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="B70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C70" s="3">
         <v>43448</v>
@@ -1308,47 +1317,47 @@
     </row>
     <row r="71" spans="1:3">
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="B76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="B79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="B80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1374,12 +1383,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/项目/Projects.xlsx
+++ b/项目/Projects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>空间捕手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +29,6 @@
   </si>
   <si>
     <t>TwinSpin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间捕手A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -386,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -401,18 +397,18 @@
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -420,7 +416,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -428,23 +424,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7">
-        <f>SUM(B3:B6)</f>
+        <f>SUM(B2:B5)</f>
         <v>9</v>
       </c>
     </row>
